--- a/csec/database/Biology data.xlsx
+++ b/csec/database/Biology data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -19,30 +19,141 @@
     <t>id</t>
   </si>
   <si>
-    <t>Biology Jan 2020 P2.pdf</t>
+    <t>CSEC Biology June 2019 P032.pdf</t>
+  </si>
+  <si>
+    <t>1nvG3NgmCygtiA5pG4ztRmOdMAyIllX6g</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2022 P032.pdf</t>
+  </si>
+  <si>
+    <t>1MUrpMLcyDLkAHiQ1rAY_YQyKZt_oCtcZ</t>
+  </si>
+  <si>
+    <t>1S5WOI7gaCavTdTZZX6NdNfvUiLSfw2NH</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2021 P032.pdf</t>
+  </si>
+  <si>
+    <t>1zr8ozj2P2YzSTi0rSv_AjVUQMCWYC6ZE</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2019 P032.pdf</t>
+  </si>
+  <si>
+    <t>1u3cyyzNbw7ilRqhaIx4j5AphySb4mi81</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1IgWWztbWO8jsinDx2tKCzsYVsqR81kHP</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>16ac1C8ZIERp4lMlEBg1yLIaulEhKEgON</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1JZOiMCQbQ-4K5swCtMk4cb01BeBBmt72</t>
+  </si>
+  <si>
+    <t>CSEC Biology June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1Q7RVgB2cGGwQWtAWAZLSvZga0vM5ubut</t>
+  </si>
+  <si>
+    <t>CSEC Biology June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1naNcLlEVzcVO6pEogymmd1ZRXjsqysmm</t>
+  </si>
+  <si>
+    <t>CSEC Biology Lab Manual.pdf</t>
+  </si>
+  <si>
+    <t>1f0ZE1FNbDMuqiFU_q4xYlWew3qEkJkSR</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2020 P2.pdf</t>
   </si>
   <si>
     <t>1p401bkK_W8djbbOG_dcqBW6a_3mTmqpH</t>
   </si>
   <si>
+    <t>CSEC Biology January 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1DCOBsmQUr6iIKMQQgPwKrAidvp8IudsA</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>12bLhrW_DeV3zQWz37eyp02BkJlBbhDjq</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2017 P2.pdf</t>
+  </si>
+  <si>
+    <t>1gy8VKJuI8VsvzACZT2nhIHnNjyuZdSlD</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2016 P2.pdf</t>
+  </si>
+  <si>
+    <t>1WxBdvdyVvKdRwaMZrtK-dfhPqp-w7GgW</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2015 P2.pdf</t>
+  </si>
+  <si>
+    <t>1pMB2_yYmZw5G9kAtnDK2Ey0OIJs7oh9C</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2014 P32.pdf</t>
+  </si>
+  <si>
+    <t>1XR-lVUGsdMmG_KfOm4gYv5cJvgbLzie7</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2014 P2.pdf</t>
+  </si>
+  <si>
+    <t>1F_o6k7wtZdbkxbsKJfWVMSxunqEU-rUa</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2013 P32.pdf</t>
+  </si>
+  <si>
+    <t>1ZmErgJJuplS0hPpoLHmBHOOIeqFQZKcq</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2013 P2.pdf</t>
+  </si>
+  <si>
+    <t>1xoSwXY7Xh2wcpKqFF6xsKl2HDmJ5ffkG</t>
+  </si>
+  <si>
+    <t>CSEC Biology January 2012 P2.pdf</t>
+  </si>
+  <si>
+    <t>1P0Pj2fY9-VNPq3zlhukqHb_vs2ORyWJA</t>
+  </si>
+  <si>
     <t>CSEC Biology June 2019 P2.pdf</t>
   </si>
   <si>
     <t>1U8SuC7Bf-LCuObVJT4Cep0YJEkEiLnME</t>
   </si>
   <si>
-    <t>Biology Jan 2014 P32.pdf</t>
-  </si>
-  <si>
-    <t>1XR-lVUGsdMmG_KfOm4gYv5cJvgbLzie7</t>
-  </si>
-  <si>
-    <t>Biology Jan 2013 P32.pdf</t>
-  </si>
-  <si>
-    <t>1ZmErgJJuplS0hPpoLHmBHOOIeqFQZKcq</t>
-  </si>
-  <si>
     <t>CSEC Biology June 2017 P2.pdf</t>
   </si>
   <si>
@@ -95,60 +206,6 @@
   </si>
   <si>
     <t>19Cj-PAD3J4QSw-Rin_7i-_mIy80EaZcb</t>
-  </si>
-  <si>
-    <t>Biology Jan 2014 P2.pdf</t>
-  </si>
-  <si>
-    <t>1F_o6k7wtZdbkxbsKJfWVMSxunqEU-rUa</t>
-  </si>
-  <si>
-    <t>Biology Jan 2013 P2.pdf</t>
-  </si>
-  <si>
-    <t>1xoSwXY7Xh2wcpKqFF6xsKl2HDmJ5ffkG</t>
-  </si>
-  <si>
-    <t>Biology Jan 2012 P2.pdf</t>
-  </si>
-  <si>
-    <t>1P0Pj2fY9-VNPq3zlhukqHb_vs2ORyWJA</t>
-  </si>
-  <si>
-    <t>Biology Jan 2019 P2.pdf</t>
-  </si>
-  <si>
-    <t>1DCOBsmQUr6iIKMQQgPwKrAidvp8IudsA</t>
-  </si>
-  <si>
-    <t>Biology Lab Manual.pdf</t>
-  </si>
-  <si>
-    <t>1f0ZE1FNbDMuqiFU_q4xYlWew3qEkJkSR</t>
-  </si>
-  <si>
-    <t>Biology Jan 2018 P2.pdf</t>
-  </si>
-  <si>
-    <t>12bLhrW_DeV3zQWz37eyp02BkJlBbhDjq</t>
-  </si>
-  <si>
-    <t>Biology Jan 2017 P2.pdf</t>
-  </si>
-  <si>
-    <t>1gy8VKJuI8VsvzACZT2nhIHnNjyuZdSlD</t>
-  </si>
-  <si>
-    <t>Biology Jan 2015 P2.pdf</t>
-  </si>
-  <si>
-    <t>1pMB2_yYmZw5G9kAtnDK2Ey0OIJs7oh9C</t>
-  </si>
-  <si>
-    <t>Biology Jan 2016 P2.pdf</t>
-  </si>
-  <si>
-    <t>1WxBdvdyVvKdRwaMZrtK-dfhPqp-w7GgW</t>
   </si>
   <si>
     <t>CSEC Biology June 2007 P2.pdf</t>
@@ -626,199 +683,199 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
@@ -898,154 +955,234 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
         <v>110</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
